--- a/pred_ohlcv/54_21/2020-01-20 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 APIS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-3217111.906169273</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4161420.123469273</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5856512.768769274</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7524201.804469273</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-6216574.172069272</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7968485.701969272</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-7228485.701969272</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3474689.428069271</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3518197.428069271</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1727987.175069271</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2635441.882869271</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-323797.893369271</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-177074.840069271</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-131081.646969271</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-811734.2608692709</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>699164.6054307292</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-569437.0470692709</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-277341.3879692708</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-916478.3138692707</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2192132.319269271</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2792169.470769271</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-526208.9325692705</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3005852.534969271</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5317047.744669271</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5267047.744669271</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5963942.58256927</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6895484.770969271</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8668701.592569271</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5924887.619269272</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5924887.619269272</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3847680.111569272</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2953406.629469272</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2973017.239969272</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5553822.202569271</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4542799.170969271</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5141763.371269271</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-7294059.408569271</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-23518974.24176927</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-22710316.07106927</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-22707783.44566927</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-21092733.54236928</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-19427759.22336928</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-21570853.98976928</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-17224194.41336928</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-18204951.92866928</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-18949410.01746928</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-19249410.01746928</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-17044301.95196928</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-15792714.52176928</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 APIS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-3217111.906169273</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4161420.123469273</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5856512.768769274</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7524201.804469273</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-6216574.172069272</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7968485.701969272</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-7228485.701969272</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3474689.428069271</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3518197.428069271</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1727987.175069271</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2635441.882869271</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-323797.893369271</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-177074.840069271</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-132011.320069271</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-132011.320069271</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-131081.646969271</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-811734.2608692709</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-569437.0470692709</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>362730.6120307292</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-277341.3879692708</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1417311.569130729</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2792169.470769271</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5317047.744669271</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5267047.744669271</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5963942.58256927</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6895484.770969271</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5924887.619269272</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3847680.111569272</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-23518974.24176927</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-22710316.07106927</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-22707783.44566927</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-21092733.54236928</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-20388922.69816928</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-19427759.22336928</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-21947609.91526928</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-17224194.41336928</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-18204951.92866928</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-18949410.01746928</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-19249410.01746928</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-17044301.95196928</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-15792714.52176928</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
